--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H2">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>131.751028136148</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="N2">
-        <v>131.751028136148</v>
+        <v>0.848335</v>
       </c>
       <c r="O2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="P2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="Q2">
-        <v>402.1187644549757</v>
+        <v>1.174570236302777</v>
       </c>
       <c r="R2">
-        <v>402.1187644549757</v>
+        <v>10.571132126725</v>
       </c>
       <c r="S2">
-        <v>0.009390389760085507</v>
+        <v>2.295755471258294E-05</v>
       </c>
       <c r="T2">
-        <v>0.009390389760085507</v>
+        <v>2.295755471258294E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H3">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>136.587322373059</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="N3">
-        <v>136.587322373059</v>
+        <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="P3">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="Q3">
-        <v>416.8796713761552</v>
+        <v>0.1297207589094444</v>
       </c>
       <c r="R3">
-        <v>416.8796713761552</v>
+        <v>1.167486830185</v>
       </c>
       <c r="S3">
-        <v>0.009735090583460636</v>
+        <v>2.535456227288287E-06</v>
       </c>
       <c r="T3">
-        <v>0.009735090583460636</v>
+        <v>2.535456227288286E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.371518409563</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H4">
-        <v>130.371518409563</v>
+        <v>12.461035</v>
       </c>
       <c r="I4">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J4">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.751028136148</v>
+        <v>133.2267966666667</v>
       </c>
       <c r="N4">
-        <v>131.751028136148</v>
+        <v>399.68039</v>
       </c>
       <c r="O4">
-        <v>0.4909884401023307</v>
+        <v>0.4769616215833459</v>
       </c>
       <c r="P4">
-        <v>0.4909884401023307</v>
+        <v>0.4769616215833458</v>
       </c>
       <c r="Q4">
-        <v>17176.58159013067</v>
+        <v>553.3812587337388</v>
       </c>
       <c r="R4">
-        <v>17176.58159013067</v>
+        <v>4980.431328603649</v>
       </c>
       <c r="S4">
-        <v>0.4011123333074303</v>
+        <v>0.01081610969837563</v>
       </c>
       <c r="T4">
-        <v>0.4011123333074303</v>
+        <v>0.01081610969837563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>130.371518409563</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H5">
-        <v>130.371518409563</v>
+        <v>12.461035</v>
       </c>
       <c r="I5">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J5">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>136.587322373059</v>
+        <v>145.729604</v>
       </c>
       <c r="N5">
-        <v>136.587322373059</v>
+        <v>437.188812</v>
       </c>
       <c r="O5">
-        <v>0.5090115598976694</v>
+        <v>0.5217225811594522</v>
       </c>
       <c r="P5">
-        <v>0.5090115598976694</v>
+        <v>0.5217225811594521</v>
       </c>
       <c r="Q5">
-        <v>17807.09661327218</v>
+        <v>605.3138986600466</v>
       </c>
       <c r="R5">
-        <v>17807.09661327218</v>
+        <v>5447.82508794042</v>
       </c>
       <c r="S5">
-        <v>0.4158362963259505</v>
+        <v>0.0118311587653688</v>
       </c>
       <c r="T5">
-        <v>0.4158362963259505</v>
+        <v>0.01183115876536879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.7269460873118</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H6">
-        <v>6.7269460873118</v>
+        <v>12.461035</v>
       </c>
       <c r="I6">
-        <v>0.04215314398949194</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J6">
-        <v>0.04215314398949194</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>131.751028136148</v>
+        <v>0.053525</v>
       </c>
       <c r="N6">
-        <v>131.751028136148</v>
+        <v>0.160575</v>
       </c>
       <c r="O6">
-        <v>0.4909884401023307</v>
+        <v>0.000191623392845833</v>
       </c>
       <c r="P6">
-        <v>0.4909884401023307</v>
+        <v>0.000191623392845833</v>
       </c>
       <c r="Q6">
-        <v>886.2820632197677</v>
+        <v>0.2223256327916666</v>
       </c>
       <c r="R6">
-        <v>886.2820632197677</v>
+        <v>2.000930695125</v>
       </c>
       <c r="S6">
-        <v>0.02069670641280958</v>
+        <v>4.34546417155134E-06</v>
       </c>
       <c r="T6">
-        <v>0.02069670641280958</v>
+        <v>4.34546417155134E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H7">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J7">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>136.587322373059</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="N7">
-        <v>136.587322373059</v>
+        <v>0.848335</v>
       </c>
       <c r="O7">
-        <v>0.5090115598976694</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="P7">
-        <v>0.5090115598976694</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="Q7">
-        <v>918.8155538138449</v>
+        <v>39.75554591578555</v>
       </c>
       <c r="R7">
-        <v>918.8155538138449</v>
+        <v>357.79991324207</v>
       </c>
       <c r="S7">
-        <v>0.02145643757668236</v>
+        <v>0.0007770417573010758</v>
       </c>
       <c r="T7">
-        <v>0.02145643757668236</v>
+        <v>0.0007770417573010757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.0822971237213</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H8">
-        <v>19.0822971237213</v>
+        <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.1195756302884144</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J8">
-        <v>0.1195756302884144</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>131.751028136148</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="N8">
-        <v>131.751028136148</v>
+        <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.4909884401023307</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="P8">
-        <v>0.4909884401023307</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="Q8">
-        <v>2514.112265249741</v>
+        <v>4.390643852246889</v>
       </c>
       <c r="R8">
-        <v>2514.112265249741</v>
+        <v>39.515794670222</v>
       </c>
       <c r="S8">
-        <v>0.05871025218956161</v>
+        <v>8.581730010349107E-05</v>
       </c>
       <c r="T8">
-        <v>0.05871025218956161</v>
+        <v>8.581730010349106E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.0822971237213</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H9">
-        <v>19.0822971237213</v>
+        <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.1195756302884144</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J9">
-        <v>0.1195756302884144</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.587322373059</v>
+        <v>133.2267966666667</v>
       </c>
       <c r="N9">
-        <v>136.587322373059</v>
+        <v>399.68039</v>
       </c>
       <c r="O9">
-        <v>0.5090115598976694</v>
+        <v>0.4769616215833459</v>
       </c>
       <c r="P9">
-        <v>0.5090115598976694</v>
+        <v>0.4769616215833458</v>
       </c>
       <c r="Q9">
-        <v>2606.399868856218</v>
+        <v>18730.2328635316</v>
       </c>
       <c r="R9">
-        <v>2606.399868856218</v>
+        <v>168572.0957717844</v>
       </c>
       <c r="S9">
-        <v>0.06086537809885283</v>
+        <v>0.3660916413968295</v>
       </c>
       <c r="T9">
-        <v>0.06086537809885283</v>
+        <v>0.3660916413968294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.350623411838624</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H10">
-        <v>0.350623411838624</v>
+        <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.002197115745166725</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J10">
-        <v>0.002197115745166725</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>131.751028136148</v>
+        <v>145.729604</v>
       </c>
       <c r="N10">
-        <v>131.751028136148</v>
+        <v>437.188812</v>
       </c>
       <c r="O10">
-        <v>0.4909884401023307</v>
+        <v>0.5217225811594522</v>
       </c>
       <c r="P10">
-        <v>0.4909884401023307</v>
+        <v>0.5217225811594521</v>
       </c>
       <c r="Q10">
-        <v>46.19499499834276</v>
+        <v>20487.99105227739</v>
       </c>
       <c r="R10">
-        <v>46.19499499834276</v>
+        <v>184391.9194704965</v>
       </c>
       <c r="S10">
-        <v>0.00107875843244368</v>
+        <v>0.4004478923407023</v>
       </c>
       <c r="T10">
-        <v>0.00107875843244368</v>
+        <v>0.4004478923407022</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>140.5890806666667</v>
+      </c>
+      <c r="H11">
+        <v>421.767242</v>
+      </c>
+      <c r="I11">
+        <v>0.7675494732291734</v>
+      </c>
+      <c r="J11">
+        <v>0.7675494732291734</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.053525</v>
+      </c>
+      <c r="N11">
+        <v>0.160575</v>
+      </c>
+      <c r="O11">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P11">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q11">
+        <v>7.525030542683332</v>
+      </c>
+      <c r="R11">
+        <v>67.72527488415</v>
+      </c>
+      <c r="S11">
+        <v>0.0001470804342372061</v>
+      </c>
+      <c r="T11">
+        <v>0.0001470804342372061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.122973333333334</v>
+      </c>
+      <c r="H12">
+        <v>21.36892</v>
+      </c>
+      <c r="I12">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="J12">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.848335</v>
+      </c>
+      <c r="O12">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P12">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q12">
+        <v>2.014222527577778</v>
+      </c>
+      <c r="R12">
+        <v>18.1280027482</v>
+      </c>
+      <c r="S12">
+        <v>3.936897296643562E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.936897296643561E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.122973333333334</v>
+      </c>
+      <c r="H13">
+        <v>21.36892</v>
+      </c>
+      <c r="I13">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="J13">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.093691</v>
+      </c>
+      <c r="O13">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P13">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q13">
+        <v>0.2224528315244445</v>
+      </c>
+      <c r="R13">
+        <v>2.00207548372</v>
+      </c>
+      <c r="S13">
+        <v>4.347950333533709E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.347950333533709E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.122973333333334</v>
+      </c>
+      <c r="H14">
+        <v>21.36892</v>
+      </c>
+      <c r="I14">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="J14">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N14">
+        <v>399.68039</v>
+      </c>
+      <c r="O14">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P14">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q14">
+        <v>948.970919942089</v>
+      </c>
+      <c r="R14">
+        <v>8540.738279478801</v>
+      </c>
+      <c r="S14">
+        <v>0.0185481047806874</v>
+      </c>
+      <c r="T14">
+        <v>0.0185481047806874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.350623411838624</v>
-      </c>
-      <c r="H11">
-        <v>0.350623411838624</v>
-      </c>
-      <c r="I11">
-        <v>0.002197115745166725</v>
-      </c>
-      <c r="J11">
-        <v>0.002197115745166725</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>136.587322373059</v>
-      </c>
-      <c r="N11">
-        <v>136.587322373059</v>
-      </c>
-      <c r="O11">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="P11">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="Q11">
-        <v>47.89071298434397</v>
-      </c>
-      <c r="R11">
-        <v>47.89071298434397</v>
-      </c>
-      <c r="S11">
-        <v>0.001118357312723045</v>
-      </c>
-      <c r="T11">
-        <v>0.001118357312723045</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.122973333333334</v>
+      </c>
+      <c r="H15">
+        <v>21.36892</v>
+      </c>
+      <c r="I15">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="J15">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.729604</v>
+      </c>
+      <c r="N15">
+        <v>437.188812</v>
+      </c>
+      <c r="O15">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P15">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q15">
+        <v>1038.028083169227</v>
+      </c>
+      <c r="R15">
+        <v>9342.25274852304</v>
+      </c>
+      <c r="S15">
+        <v>0.02028877097002493</v>
+      </c>
+      <c r="T15">
+        <v>0.02028877097002493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.122973333333334</v>
+      </c>
+      <c r="H16">
+        <v>21.36892</v>
+      </c>
+      <c r="I16">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="J16">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.053525</v>
+      </c>
+      <c r="N16">
+        <v>0.160575</v>
+      </c>
+      <c r="O16">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P16">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q16">
+        <v>0.3812571476666667</v>
+      </c>
+      <c r="R16">
+        <v>3.431314329000001</v>
+      </c>
+      <c r="S16">
+        <v>7.451859034562288E-06</v>
+      </c>
+      <c r="T16">
+        <v>7.451859034562288E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H17">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J17">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.848335</v>
+      </c>
+      <c r="O17">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P17">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q17">
+        <v>8.741644065601111</v>
+      </c>
+      <c r="R17">
+        <v>78.67479659041001</v>
+      </c>
+      <c r="S17">
+        <v>0.0001708597457276544</v>
+      </c>
+      <c r="T17">
+        <v>0.0001708597457276544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H18">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J18">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.093691</v>
+      </c>
+      <c r="O18">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P18">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q18">
+        <v>0.9654362653317778</v>
+      </c>
+      <c r="R18">
+        <v>8.688926387986001</v>
+      </c>
+      <c r="S18">
+        <v>1.886992807908393E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.886992807908393E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H19">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J19">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N19">
+        <v>399.68039</v>
+      </c>
+      <c r="O19">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P19">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q19">
+        <v>4118.495298886216</v>
+      </c>
+      <c r="R19">
+        <v>37066.45768997594</v>
+      </c>
+      <c r="S19">
+        <v>0.08049802237056086</v>
+      </c>
+      <c r="T19">
+        <v>0.08049802237056083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H20">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J20">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>145.729604</v>
+      </c>
+      <c r="N20">
+        <v>437.188812</v>
+      </c>
+      <c r="O20">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P20">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q20">
+        <v>4504.999774814195</v>
+      </c>
+      <c r="R20">
+        <v>40544.99797332776</v>
+      </c>
+      <c r="S20">
+        <v>0.08805244302462506</v>
+      </c>
+      <c r="T20">
+        <v>0.08805244302462503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H21">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J21">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.053525</v>
+      </c>
+      <c r="N21">
+        <v>0.160575</v>
+      </c>
+      <c r="O21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q21">
+        <v>1.654640555716667</v>
+      </c>
+      <c r="R21">
+        <v>14.89176500145</v>
+      </c>
+      <c r="S21">
+        <v>3.234076593588394E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.234076593588394E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.161002</v>
+      </c>
+      <c r="I22">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J22">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.848335</v>
+      </c>
+      <c r="O22">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P22">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q22">
+        <v>0.1094354035188889</v>
+      </c>
+      <c r="R22">
+        <v>0.98491863167</v>
+      </c>
+      <c r="S22">
+        <v>2.138968948921035E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.138968948921034E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.161002</v>
+      </c>
+      <c r="I23">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J23">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.093691</v>
+      </c>
+      <c r="O23">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P23">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q23">
+        <v>0.01208615982022222</v>
+      </c>
+      <c r="R23">
+        <v>0.108775438382</v>
+      </c>
+      <c r="S23">
+        <v>2.362299560826332E-07</v>
+      </c>
+      <c r="T23">
+        <v>2.362299560826332E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.161002</v>
+      </c>
+      <c r="I24">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J24">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N24">
+        <v>399.68039</v>
+      </c>
+      <c r="O24">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P24">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q24">
+        <v>51.55885912786445</v>
+      </c>
+      <c r="R24">
+        <v>464.02973215078</v>
+      </c>
+      <c r="S24">
+        <v>0.001007743336892441</v>
+      </c>
+      <c r="T24">
+        <v>0.001007743336892441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.161002</v>
+      </c>
+      <c r="I25">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J25">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>145.729604</v>
+      </c>
+      <c r="N25">
+        <v>437.188812</v>
+      </c>
+      <c r="O25">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P25">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q25">
+        <v>56.39745390106934</v>
+      </c>
+      <c r="R25">
+        <v>507.577085109624</v>
+      </c>
+      <c r="S25">
+        <v>0.001102316058731133</v>
+      </c>
+      <c r="T25">
+        <v>0.001102316058731133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.161002</v>
+      </c>
+      <c r="I26">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J26">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.053525</v>
+      </c>
+      <c r="N26">
+        <v>0.160575</v>
+      </c>
+      <c r="O26">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P26">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q26">
+        <v>0.02071421068333333</v>
+      </c>
+      <c r="R26">
+        <v>0.18642789615</v>
+      </c>
+      <c r="S26">
+        <v>4.04869466629333E-07</v>
+      </c>
+      <c r="T26">
+        <v>4.048694666293329E-07</v>
       </c>
     </row>
   </sheetData>
